--- a/LightningTalksSchedule.xlsx
+++ b/LightningTalksSchedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="820" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="164">
   <si>
     <t>Section</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Diversification and gene flow in island and mainland Tamiasciurus spp. â€“ unraveling the mystery of Vancouver Islandâ€™s squirrels</t>
   </si>
   <si>
-    <t>Where and when do plasticity and genetic adaptability promote persistence? Integrating genomics and phenomics in Pelargonium to understand trait evolution under environmental change</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Multi-Dimensional Optimization - A Mathematic Model For Evolution</t>
   </si>
   <si>
-    <t>The Importance of Non-random Encounters In Species Interactions</t>
-  </si>
-  <si>
     <t>Coevolution and the architecture of mutualistic networks</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Transcriptome profiling of abdominal appendages in the fly Themira biloba</t>
   </si>
   <si>
-    <t>Recessive mutations slow selective sweeps</t>
-  </si>
-  <si>
     <t>Phylodynamic analysis of the emergence and epidemiological impact of transmissible defective dengue viruses</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Julia Bowsher</t>
   </si>
   <si>
-    <t>Zoe Assaf</t>
-  </si>
-  <si>
     <t>Ruian Ke</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
     <t>Andreas Chavez</t>
   </si>
   <si>
-    <t>Caroline Chong</t>
-  </si>
-  <si>
     <t>Christopher Ivey</t>
   </si>
   <si>
@@ -372,9 +357,6 @@
     <t>Xuguang Leng</t>
   </si>
   <si>
-    <t>Ben Ridenhour</t>
-  </si>
-  <si>
     <t>Scott Nuismer</t>
   </si>
   <si>
@@ -523,6 +505,12 @@
   </si>
   <si>
     <t>Minute</t>
+  </si>
+  <si>
+    <t>Sarah Schaak</t>
+  </si>
+  <si>
+    <t>Evolutionary inference based on empirical estimates of spontaneous mutation rates and their phenotypic effects</t>
   </si>
 </sst>
 </file>
@@ -575,8 +563,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -616,7 +612,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -629,6 +625,10 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -641,6 +641,10 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -991,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
@@ -1014,16 +1018,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -1034,16 +1038,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
@@ -1054,16 +1058,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
@@ -1074,16 +1078,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
@@ -1094,16 +1098,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -1114,16 +1118,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
@@ -1134,16 +1138,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
@@ -1154,16 +1158,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -1174,16 +1178,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -1194,16 +1198,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
@@ -1214,16 +1218,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
@@ -1234,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -1254,16 +1258,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
@@ -1274,16 +1278,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
@@ -1294,16 +1298,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
@@ -1314,16 +1318,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
@@ -1334,16 +1338,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -1354,1096 +1358,1096 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
